--- a/Assets/Resources/Actions/Texts/exels/act_010_data_000_kr.xlsx
+++ b/Assets/Resources/Actions/Texts/exels/act_010_data_000_kr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="135">
   <si>
     <t>ActionNumber</t>
   </si>
@@ -435,67 +435,63 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>011|a03</t>
+    <t>002|a10|011|a05</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>011|a07</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002|a13|001|a15|011|a09</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path003</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path004</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path005</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle_01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batterycharge_01|Batterycharge_02|Batterycharge_03|Batterycharge_04|Idle_01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Writing_01|Idle_01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tranceiver_01|Idle_01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tranceiver_01|Idle_01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tranceiver_01|Idle_01</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>011|a02</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002|a10|011|a05</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>011|a07</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002|a13|001|a15|011|a09</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path001</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path002</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path003</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path004</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path005</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Idle_01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Batterycharge_01|Batterycharge_02|Batterycharge_03|Batterycharge_04|Idle_01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Writing_01|Idle_01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tranceiver_01|Idle_01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tranceiver_01|Idle_01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tranceiver_01|Idle_01</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1520,7 +1516,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1603,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1653,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1700,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1747,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1841,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1865,7 +1861,7 @@
         <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s">
         <v>24</v>
@@ -1891,7 +1887,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1929,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1967,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2014,7 +2010,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2027,9 +2023,6 @@
       </c>
       <c r="I11" t="s">
         <v>19</v>
-      </c>
-      <c r="M11" t="s">
-        <v>121</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>38</v>
@@ -2055,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2070,10 +2063,10 @@
         <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="N12" t="s">
         <v>24</v>
@@ -2161,10 +2154,10 @@
         <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>24</v>
@@ -2190,7 +2183,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -2261,10 +2254,10 @@
         <v>35</v>
       </c>
       <c r="K16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N16" t="s">
         <v>38</v>
@@ -2305,10 +2298,10 @@
         <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N17" t="s">
         <v>24</v>
